--- a/target/test-classes/Data.xlsx
+++ b/target/test-classes/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>FirstName</t>
   </si>
@@ -87,6 +87,21 @@
   </si>
   <si>
     <t>Community17</t>
+  </si>
+  <si>
+    <t>Test01</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>rg002@gmail.com</t>
+  </si>
+  <si>
+    <t>\\src\\test\\resources\\Sample2.docx</t>
+  </si>
+  <si>
+    <t>\\src\\test\\resources\\sample2.jpg</t>
   </si>
 </sst>
 </file>
@@ -153,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +183,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -451,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,7 +537,7 @@
         <v>1234567890</v>
       </c>
       <c r="G2" s="3">
-        <v>44473</v>
+        <v>44293</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>13</v>
@@ -548,13 +566,42 @@
         <v>2345567990</v>
       </c>
       <c r="G3" s="3">
-        <v>44484</v>
+        <v>44688</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4561235562</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44749</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -565,8 +612,11 @@
     <hyperlink ref="H3" r:id="rId4"/>
     <hyperlink ref="I2" r:id="rId5"/>
     <hyperlink ref="I3" r:id="rId6"/>
+    <hyperlink ref="E4" r:id="rId7"/>
+    <hyperlink ref="H4" r:id="rId8"/>
+    <hyperlink ref="I4" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>